--- a/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BD3282-48FE-4016-A025-94CF97262871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A64F14-6D56-413B-ABC2-840FFDB06F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F62F2EC8-3224-4B77-BA36-20475FB57730}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92699616-9CF3-47D3-81D3-29A45A2F5878}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="422">
   <si>
     <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2012 (Tasa respuesta: 79,7%)</t>
   </si>
@@ -76,19 +76,19 @@
     <t>70,85%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>74,88%</t>
@@ -97,7 +97,7 @@
     <t>72,74%</t>
   </si>
   <si>
-    <t>76,99%</t>
+    <t>77,08%</t>
   </si>
   <si>
     <t>Grupo III</t>
@@ -106,28 +106,28 @@
     <t>21,84%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>Grupo II</t>
@@ -136,28 +136,28 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>Grupo I</t>
@@ -166,25 +166,25 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>4,27%</t>
@@ -199,1135 +199,1111 @@
     <t>53,61%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>18,22%</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272F6A05-E769-4DC6-ADBE-05C294F37A45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B2091-A589-4519-9EC3-7105C79680BC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2383,7 +2359,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -2392,13 +2368,13 @@
         <v>62062</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -2407,13 +2383,13 @@
         <v>118775</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2404,13 @@
         <v>33606</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2443,13 +2419,13 @@
         <v>8200</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -2458,13 +2434,13 @@
         <v>41806</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2455,13 @@
         <v>116313</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -2494,13 +2470,13 @@
         <v>93097</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>184</v>
@@ -2509,13 +2485,13 @@
         <v>209410</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2506,13 @@
         <v>245832</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -2545,13 +2521,13 @@
         <v>231030</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -2560,13 +2536,13 @@
         <v>476862</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2610,13 @@
         <v>1665860</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1411</v>
@@ -2649,13 +2625,13 @@
         <v>1525069</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2977</v>
@@ -2664,13 +2640,13 @@
         <v>3190929</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2661,13 @@
         <v>628080</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -2700,13 +2676,13 @@
         <v>260129</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>834</v>
@@ -2715,13 +2691,13 @@
         <v>888209</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2712,13 @@
         <v>416880</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>304</v>
@@ -2751,13 +2727,13 @@
         <v>337042</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>677</v>
@@ -2766,13 +2742,13 @@
         <v>753923</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2763,13 @@
         <v>437211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -2802,13 +2778,13 @@
         <v>314454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>687</v>
@@ -2817,13 +2793,13 @@
         <v>751665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2855,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB43BD2B-5D32-4330-AB12-934ECB37F77E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6834E9-11E9-4CB0-8353-9842907281F7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2915,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3022,13 +2998,13 @@
         <v>576015</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>440</v>
@@ -3037,13 +3013,13 @@
         <v>471383</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>1020</v>
@@ -3052,13 +3028,13 @@
         <v>1047399</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3049,13 @@
         <v>127894</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3088,13 +3064,13 @@
         <v>36421</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -3103,13 +3079,13 @@
         <v>164315</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3100,13 @@
         <v>20255</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3139,13 +3115,13 @@
         <v>7594</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -3154,13 +3130,13 @@
         <v>27849</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3151,13 @@
         <v>17056</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3190,13 +3166,13 @@
         <v>4602</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3205,13 +3181,13 @@
         <v>21658</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3255,13 @@
         <v>1128272</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>958</v>
@@ -3294,13 +3270,13 @@
         <v>989400</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>2019</v>
@@ -3309,13 +3285,13 @@
         <v>2117673</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3306,13 @@
         <v>359665</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -3345,13 +3321,13 @@
         <v>114135</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>445</v>
@@ -3360,13 +3336,13 @@
         <v>473799</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3357,13 @@
         <v>238762</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -3396,13 +3372,13 @@
         <v>256972</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -3411,13 +3387,13 @@
         <v>495735</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3408,13 @@
         <v>117226</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -3447,13 +3423,13 @@
         <v>71442</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>178</v>
@@ -3462,13 +3438,13 @@
         <v>188668</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,10 +3515,10 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -3551,13 +3527,13 @@
         <v>98403</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>144</v>
@@ -3566,13 +3542,13 @@
         <v>154975</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3563,13 @@
         <v>32438</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -3602,13 +3578,13 @@
         <v>13574</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>43</v>
@@ -3617,13 +3593,13 @@
         <v>46012</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3614,13 @@
         <v>116067</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -3653,13 +3629,13 @@
         <v>105693</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -3668,13 +3644,13 @@
         <v>221760</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3665,13 @@
         <v>293546</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -3704,13 +3680,13 @@
         <v>271011</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -3719,13 +3695,13 @@
         <v>564557</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3769,13 @@
         <v>1760860</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>1492</v>
@@ -3808,28 +3784,28 @@
         <v>1559186</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>3183</v>
       </c>
       <c r="N19" s="7">
-        <v>3320047</v>
+        <v>3320046</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3820,7 @@
         <v>519996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>275</v>
@@ -3871,7 +3847,7 @@
         <v>651</v>
       </c>
       <c r="N20" s="7">
-        <v>684127</v>
+        <v>684126</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>280</v>
@@ -3901,7 +3877,7 @@
         <v>284</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7">
         <v>350</v>
@@ -3931,7 +3907,7 @@
         <v>289</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>290</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3922,13 @@
         <v>427828</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>332</v>
@@ -3961,13 +3937,13 @@
         <v>347055</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>727</v>
@@ -3976,7 +3952,7 @@
         <v>774883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>296</v>
@@ -4024,7 +4000,7 @@
         <v>5263</v>
       </c>
       <c r="N23" s="7">
-        <v>5524400</v>
+        <v>5524399</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -4038,7 +4014,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A7DD1-1053-49C6-9C95-BC92211D415A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970DEA75-12F4-4B6B-8279-2FA2AEB7B28B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4232,7 +4208,7 @@
         <v>73031</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>308</v>
@@ -4250,10 +4226,10 @@
         <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4262,13 +4238,13 @@
         <v>116364</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4259,13 @@
         <v>18295</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -4298,13 +4274,13 @@
         <v>10487</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -4313,13 +4289,13 @@
         <v>28782</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4310,13 @@
         <v>10584</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4349,13 +4325,13 @@
         <v>10756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4364,13 +4340,13 @@
         <v>21339</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4414,13 @@
         <v>1064246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7">
         <v>1644</v>
@@ -4453,13 +4429,13 @@
         <v>1267848</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M9" s="7">
         <v>2687</v>
@@ -4468,13 +4444,13 @@
         <v>2332094</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4465,13 @@
         <v>395331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -4504,13 +4480,13 @@
         <v>126450</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>556</v>
@@ -4519,13 +4495,13 @@
         <v>521781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4516,13 @@
         <v>325425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -4555,13 +4531,13 @@
         <v>248796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>678</v>
@@ -4570,13 +4546,13 @@
         <v>574221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4567,13 @@
         <v>129711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -4606,13 +4582,13 @@
         <v>86412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>253</v>
@@ -4621,13 +4597,13 @@
         <v>216122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4671,13 @@
         <v>65585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -4710,13 +4686,13 @@
         <v>84758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>200</v>
@@ -4725,13 +4701,13 @@
         <v>150344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4722,13 @@
         <v>31027</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -4761,13 +4737,13 @@
         <v>13243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M15" s="7">
         <v>52</v>
@@ -4776,13 +4752,13 @@
         <v>44270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4773,13 @@
         <v>128947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -4812,13 +4788,13 @@
         <v>156441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>349</v>
@@ -4827,13 +4803,13 @@
         <v>285388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4824,13 @@
         <v>388648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>549</v>
@@ -4863,13 +4839,13 @@
         <v>388101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>954</v>
@@ -4878,13 +4854,13 @@
         <v>776749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4928,13 @@
         <v>1556159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>2516</v>
@@ -4967,13 +4943,13 @@
         <v>1772238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>4174</v>
@@ -4982,13 +4958,13 @@
         <v>3328397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4979,13 @@
         <v>499389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>288</v>
@@ -5018,13 +4994,13 @@
         <v>183026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>776</v>
@@ -5033,13 +5009,13 @@
         <v>682414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5030,13 @@
         <v>472667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="H21" s="7">
         <v>590</v>
@@ -5069,13 +5045,13 @@
         <v>415723</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>418</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -5084,13 +5060,13 @@
         <v>888390</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5081,13 @@
         <v>528942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>685</v>
@@ -5120,13 +5096,13 @@
         <v>485268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>1237</v>
@@ -5135,13 +5111,13 @@
         <v>1014210</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5129,7 @@
         <v>3175</v>
       </c>
       <c r="D23" s="7">
-        <v>3057157</v>
+        <v>3057158</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -5197,7 +5173,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A64F14-6D56-413B-ABC2-840FFDB06F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84ED01D6-50D0-418D-8F4B-BF6893431E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92699616-9CF3-47D3-81D3-29A45A2F5878}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DB79761-A8F9-4C36-A23C-A13AB0AAE1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="431">
   <si>
     <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2012 (Tasa respuesta: 79,7%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>70,85%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>Grupo III</t>
@@ -106,1168 +106,1195 @@
     <t>21,84%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>Grupo II</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>Grupo I</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2016 (Tasa respuesta: 80,47%)</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>Grupo II</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>Grupo I</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>14,55%</t>
   </si>
   <si>
     <t>12,4%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
   </si>
   <si>
     <t>15,88%</t>
@@ -1715,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B2091-A589-4519-9EC3-7105C79680BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4AF02-4C45-499D-AE27-EF1B1CB4B882}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2359,7 +2386,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -2368,13 +2395,13 @@
         <v>62062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -2383,13 +2410,13 @@
         <v>118775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2431,13 @@
         <v>33606</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2419,13 +2446,13 @@
         <v>8200</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>37</v>
@@ -2434,13 +2461,13 @@
         <v>41806</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2482,13 @@
         <v>116313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -2470,13 +2497,13 @@
         <v>93097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>184</v>
@@ -2485,13 +2512,13 @@
         <v>209410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2533,13 @@
         <v>245832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -2521,13 +2548,13 @@
         <v>231030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -2536,13 +2563,13 @@
         <v>476862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2637,13 @@
         <v>1665860</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1411</v>
@@ -2625,13 +2652,13 @@
         <v>1525069</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2977</v>
@@ -2640,13 +2667,13 @@
         <v>3190929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2688,13 @@
         <v>628080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -2676,13 +2703,13 @@
         <v>260129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>834</v>
@@ -2691,13 +2718,13 @@
         <v>888209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2739,13 @@
         <v>416880</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>304</v>
@@ -2727,13 +2754,13 @@
         <v>337042</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>677</v>
@@ -2742,13 +2769,13 @@
         <v>753923</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2790,13 @@
         <v>437211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -2778,13 +2805,13 @@
         <v>314454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>687</v>
@@ -2793,13 +2820,13 @@
         <v>751665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2882,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6834E9-11E9-4CB0-8353-9842907281F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A22942-6D6B-4A03-9E62-13B7A65E9924}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2891,7 +2918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2998,13 +3025,13 @@
         <v>576015</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>440</v>
@@ -3013,13 +3040,13 @@
         <v>471383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>1020</v>
@@ -3028,13 +3055,13 @@
         <v>1047399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3076,13 @@
         <v>127894</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3064,13 +3091,13 @@
         <v>36421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -3079,13 +3106,13 @@
         <v>164315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3127,13 @@
         <v>20255</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3115,13 +3142,13 @@
         <v>7594</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -3130,13 +3157,13 @@
         <v>27849</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3178,13 @@
         <v>17056</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3166,13 +3193,13 @@
         <v>4602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3181,13 +3208,13 @@
         <v>21658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3282,13 @@
         <v>1128272</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>958</v>
@@ -3270,13 +3297,13 @@
         <v>989400</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>2019</v>
@@ -3285,13 +3312,13 @@
         <v>2117673</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3333,13 @@
         <v>359665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -3321,13 +3348,13 @@
         <v>114135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>445</v>
@@ -3336,13 +3363,13 @@
         <v>473799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3384,13 @@
         <v>238762</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -3372,13 +3399,13 @@
         <v>256972</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -3387,13 +3414,13 @@
         <v>495735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3435,13 @@
         <v>117226</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -3423,13 +3450,13 @@
         <v>71442</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>178</v>
@@ -3438,13 +3465,13 @@
         <v>188668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,10 +3542,10 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -3527,13 +3554,13 @@
         <v>98403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>144</v>
@@ -3542,13 +3569,13 @@
         <v>154975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3590,13 @@
         <v>32438</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -3578,13 +3605,13 @@
         <v>13574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>43</v>
@@ -3593,13 +3620,13 @@
         <v>46012</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3641,13 @@
         <v>116067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -3629,13 +3656,13 @@
         <v>105693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -3644,13 +3671,13 @@
         <v>221760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3692,13 @@
         <v>293546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -3680,13 +3707,13 @@
         <v>271011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -3695,13 +3722,13 @@
         <v>564557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3796,13 @@
         <v>1760860</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>1492</v>
@@ -3784,28 +3811,28 @@
         <v>1559186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>3183</v>
       </c>
       <c r="N19" s="7">
-        <v>3320046</v>
+        <v>3320047</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3847,13 @@
         <v>519996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -3835,28 +3862,28 @@
         <v>164130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>651</v>
       </c>
       <c r="N20" s="7">
-        <v>684126</v>
+        <v>684127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3898,13 @@
         <v>375084</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="H21" s="7">
         <v>350</v>
@@ -3886,13 +3913,13 @@
         <v>370260</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M21" s="7">
         <v>702</v>
@@ -3901,13 +3928,13 @@
         <v>745344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3949,13 @@
         <v>427828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>332</v>
@@ -3937,13 +3964,13 @@
         <v>347055</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>727</v>
@@ -3952,13 +3979,13 @@
         <v>774883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +4027,7 @@
         <v>5263</v>
       </c>
       <c r="N23" s="7">
-        <v>5524399</v>
+        <v>5524400</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -4014,7 +4041,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970DEA75-12F4-4B6B-8279-2FA2AEB7B28B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0139C7F-1458-4D70-800C-234F80BD0ACB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4157,13 +4184,13 @@
         <v>426327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>742</v>
@@ -4172,13 +4199,13 @@
         <v>419631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>1287</v>
@@ -4187,13 +4214,13 @@
         <v>845959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4235,13 @@
         <v>73031</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -4223,13 +4250,13 @@
         <v>43333</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4238,13 +4265,13 @@
         <v>116364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4286,13 @@
         <v>18295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -4274,13 +4301,13 @@
         <v>10487</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -4289,13 +4316,13 @@
         <v>28782</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4337,13 @@
         <v>10584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4325,13 +4352,13 @@
         <v>10756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4340,13 +4367,13 @@
         <v>21339</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4441,13 @@
         <v>1064246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H9" s="7">
         <v>1644</v>
@@ -4429,13 +4456,13 @@
         <v>1267848</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M9" s="7">
         <v>2687</v>
@@ -4444,13 +4471,13 @@
         <v>2332094</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4492,13 @@
         <v>395331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -4480,13 +4507,13 @@
         <v>126450</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>556</v>
@@ -4495,13 +4522,13 @@
         <v>521781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4543,13 @@
         <v>325425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -4531,13 +4558,13 @@
         <v>248796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>678</v>
@@ -4546,13 +4573,13 @@
         <v>574221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4594,13 @@
         <v>129711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>356</v>
+        <v>87</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -4582,13 +4609,13 @@
         <v>86412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>253</v>
@@ -4597,13 +4624,13 @@
         <v>216122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4698,13 @@
         <v>65585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -4686,10 +4713,10 @@
         <v>84758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>76</v>
@@ -4701,13 +4728,13 @@
         <v>150344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4749,13 @@
         <v>31027</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -4737,13 +4764,13 @@
         <v>13243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M15" s="7">
         <v>52</v>
@@ -4752,13 +4779,13 @@
         <v>44270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4800,13 @@
         <v>128947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -4788,13 +4815,13 @@
         <v>156441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>349</v>
@@ -4803,13 +4830,13 @@
         <v>285388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4851,13 @@
         <v>388648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>549</v>
@@ -4839,13 +4866,13 @@
         <v>388101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>954</v>
@@ -4854,13 +4881,13 @@
         <v>776749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4955,13 @@
         <v>1556159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>2516</v>
@@ -4943,13 +4970,13 @@
         <v>1772238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>4174</v>
@@ -4958,13 +4985,13 @@
         <v>3328397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5006,13 @@
         <v>499389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>288</v>
@@ -4994,13 +5021,13 @@
         <v>183026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>776</v>
@@ -5009,13 +5036,13 @@
         <v>682414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5057,13 @@
         <v>472667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>408</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>590</v>
@@ -5045,13 +5072,13 @@
         <v>415723</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>92</v>
+        <v>418</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -5060,13 +5087,13 @@
         <v>888390</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5108,13 @@
         <v>528942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>685</v>
@@ -5096,13 +5123,13 @@
         <v>485268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>1237</v>
@@ -5111,13 +5138,13 @@
         <v>1014210</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,7 +5200,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
